--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ptprz1-L1cam.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ptprz1-L1cam.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.069191100728583</v>
+        <v>0.1030763333333333</v>
       </c>
       <c r="H2">
-        <v>0.069191100728583</v>
+        <v>0.309229</v>
       </c>
       <c r="I2">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="J2">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.7559842195591</v>
+        <v>22.59487733333333</v>
       </c>
       <c r="N2">
-        <v>12.7559842195591</v>
+        <v>67.784632</v>
       </c>
       <c r="O2">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="P2">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="Q2">
-        <v>0.882600589027729</v>
+        <v>2.328997107636444</v>
       </c>
       <c r="R2">
-        <v>0.882600589027729</v>
+        <v>20.960973968728</v>
       </c>
       <c r="S2">
-        <v>0.004853686538994707</v>
+        <v>0.008330581984517095</v>
       </c>
       <c r="T2">
-        <v>0.004853686538994707</v>
+        <v>0.008330581984517096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.069191100728583</v>
+        <v>0.1030763333333333</v>
       </c>
       <c r="H3">
-        <v>0.069191100728583</v>
+        <v>0.309229</v>
       </c>
       <c r="I3">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="J3">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.252694821842254</v>
+        <v>0.3045986666666667</v>
       </c>
       <c r="N3">
-        <v>0.252694821842254</v>
+        <v>0.9137960000000001</v>
       </c>
       <c r="O3">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="P3">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="Q3">
-        <v>0.01748423287167873</v>
+        <v>0.03139691369822222</v>
       </c>
       <c r="R3">
-        <v>0.01748423287167873</v>
+        <v>0.282572223284</v>
       </c>
       <c r="S3">
-        <v>9.615106401345226E-05</v>
+        <v>0.0001123035158636516</v>
       </c>
       <c r="T3">
-        <v>9.615106401345226E-05</v>
+        <v>0.0001123035158636516</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.069191100728583</v>
+        <v>0.1030763333333333</v>
       </c>
       <c r="H4">
-        <v>0.069191100728583</v>
+        <v>0.309229</v>
       </c>
       <c r="I4">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="J4">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.58039885238086</v>
+        <v>7.654706</v>
       </c>
       <c r="N4">
-        <v>7.58039885238086</v>
+        <v>22.964118</v>
       </c>
       <c r="O4">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="P4">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="Q4">
-        <v>0.524496140557919</v>
+        <v>0.7890190272246667</v>
       </c>
       <c r="R4">
-        <v>0.524496140557919</v>
+        <v>7.101171245021999</v>
       </c>
       <c r="S4">
-        <v>0.002884362291197913</v>
+        <v>0.002822239526226605</v>
       </c>
       <c r="T4">
-        <v>0.002884362291197913</v>
+        <v>0.002822239526226605</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.762738344900519</v>
+        <v>9.046962666666667</v>
       </c>
       <c r="H5">
-        <v>8.762738344900519</v>
+        <v>27.140888</v>
       </c>
       <c r="I5">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733926</v>
       </c>
       <c r="J5">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733927</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.7559842195591</v>
+        <v>22.59487733333333</v>
       </c>
       <c r="N5">
-        <v>12.7559842195591</v>
+        <v>67.784632</v>
       </c>
       <c r="O5">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="P5">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="Q5">
-        <v>111.7773520476764</v>
+        <v>204.4150116925796</v>
       </c>
       <c r="R5">
-        <v>111.7773520476764</v>
+        <v>1839.735105233216</v>
       </c>
       <c r="S5">
-        <v>0.6146973339276058</v>
+        <v>0.7311713733724724</v>
       </c>
       <c r="T5">
-        <v>0.6146973339276058</v>
+        <v>0.7311713733724725</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.762738344900519</v>
+        <v>9.046962666666667</v>
       </c>
       <c r="H6">
-        <v>8.762738344900519</v>
+        <v>27.140888</v>
       </c>
       <c r="I6">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733926</v>
       </c>
       <c r="J6">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733927</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.252694821842254</v>
+        <v>0.3045986666666667</v>
       </c>
       <c r="N6">
-        <v>0.252694821842254</v>
+        <v>0.9137960000000001</v>
       </c>
       <c r="O6">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="P6">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="Q6">
-        <v>2.214298604914924</v>
+        <v>2.755692765649778</v>
       </c>
       <c r="R6">
-        <v>2.214298604914924</v>
+        <v>24.801234890848</v>
       </c>
       <c r="S6">
-        <v>0.01217709512728715</v>
+        <v>0.009856828260161859</v>
       </c>
       <c r="T6">
-        <v>0.01217709512728715</v>
+        <v>0.009856828260161859</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.762738344900519</v>
+        <v>9.046962666666667</v>
       </c>
       <c r="H7">
-        <v>8.762738344900519</v>
+        <v>27.140888</v>
       </c>
       <c r="I7">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733926</v>
       </c>
       <c r="J7">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733927</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.58039885238086</v>
+        <v>7.654706</v>
       </c>
       <c r="N7">
-        <v>7.58039885238086</v>
+        <v>22.964118</v>
       </c>
       <c r="O7">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="P7">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="Q7">
-        <v>66.42505169339765</v>
+        <v>69.25183940630934</v>
       </c>
       <c r="R7">
-        <v>66.42505169339765</v>
+        <v>623.266554656784</v>
       </c>
       <c r="S7">
-        <v>0.3652913710509008</v>
+        <v>0.2477066733407583</v>
       </c>
       <c r="T7">
-        <v>0.3652913710509008</v>
+        <v>0.2477066733407583</v>
       </c>
     </row>
   </sheetData>
